--- a/src/test/resources/Book1_TestData.xlsx
+++ b/src/test/resources/Book1_TestData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git projects\SeleniumPractive\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8924CD-B3B3-4788-BEF5-E83437BFE7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B9669-EBF6-4D7A-A52B-0927ED8A9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="3110" windowWidth="13060" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="testdata" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +42,63 @@
   </si>
   <si>
     <t>admin3</t>
+  </si>
+  <si>
+    <t>Testcases</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>purhcase</t>
+  </si>
+  <si>
+    <t>Add profile</t>
+  </si>
+  <si>
+    <t>delete profile</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>cde</t>
+  </si>
+  <si>
+    <t>efg</t>
+  </si>
+  <si>
+    <t>hij</t>
+  </si>
+  <si>
+    <t>klm</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>qrs</t>
+  </si>
+  <si>
+    <t>tuw</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
   </si>
 </sst>
 </file>
@@ -356,14 +415,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D0266B-9035-469E-8D7F-E95A58704026}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -400,4 +551,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808D861-F8F4-4B9A-827E-A172004A8515}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>